--- a/osro_history-safe_deadline guard.xlsx
+++ b/osro_history-safe_deadline guard.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -1518,6 +1518,39 @@
   </si>
   <si>
     <t>2025-05-11 21:18:07</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:37:43</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:37:47</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:37:50</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:37:52</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:37:54</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:37:57</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:38:00</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:38:03</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:38:06</t>
+  </si>
+  <si>
+    <t>2025-05-12 03:38:08</t>
+  </si>
+  <si>
+    <t>2025-05-12 04:04:21</t>
   </si>
 </sst>
 </file>
@@ -48780,6 +48813,1018 @@
         <v>4019449</v>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2042">
+        <v>0</v>
+      </c>
+      <c r="D2042">
+        <v>85</v>
+      </c>
+      <c r="E2042">
+        <v>650766100</v>
+      </c>
+      <c r="F2042">
+        <v>694356</v>
+      </c>
+      <c r="G2042">
+        <v>85694356</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2043">
+        <v>0</v>
+      </c>
+      <c r="D2043">
+        <v>85</v>
+      </c>
+      <c r="E2043">
+        <v>650766100</v>
+      </c>
+      <c r="F2043">
+        <v>694904</v>
+      </c>
+      <c r="G2043">
+        <v>85694904</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2044">
+        <v>0</v>
+      </c>
+      <c r="D2044">
+        <v>85</v>
+      </c>
+      <c r="E2044">
+        <v>652740200</v>
+      </c>
+      <c r="F2044">
+        <v>772783</v>
+      </c>
+      <c r="G2044">
+        <v>85772783</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2045">
+        <v>0</v>
+      </c>
+      <c r="D2045">
+        <v>85</v>
+      </c>
+      <c r="E2045">
+        <v>650619600</v>
+      </c>
+      <c r="F2045">
+        <v>689891</v>
+      </c>
+      <c r="G2045">
+        <v>85689891</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2046">
+        <v>0</v>
+      </c>
+      <c r="D2046">
+        <v>84</v>
+      </c>
+      <c r="E2046">
+        <v>692220200</v>
+      </c>
+      <c r="F2046">
+        <v>577869</v>
+      </c>
+      <c r="G2046">
+        <v>84577869</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2047">
+        <v>0</v>
+      </c>
+      <c r="D2047">
+        <v>84</v>
+      </c>
+      <c r="E2047">
+        <v>692220200</v>
+      </c>
+      <c r="F2047">
+        <v>577164</v>
+      </c>
+      <c r="G2047">
+        <v>84577164</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2048">
+        <v>0</v>
+      </c>
+      <c r="D2048">
+        <v>84</v>
+      </c>
+      <c r="E2048">
+        <v>694072800</v>
+      </c>
+      <c r="F2048">
+        <v>656971</v>
+      </c>
+      <c r="G2048">
+        <v>84656971</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2049">
+        <v>0</v>
+      </c>
+      <c r="D2049">
+        <v>84</v>
+      </c>
+      <c r="E2049">
+        <v>692062700</v>
+      </c>
+      <c r="F2049">
+        <v>572798</v>
+      </c>
+      <c r="G2049">
+        <v>84572798</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2050">
+        <v>0</v>
+      </c>
+      <c r="D2050">
+        <v>82</v>
+      </c>
+      <c r="E2050">
+        <v>695723600</v>
+      </c>
+      <c r="F2050">
+        <v>421701</v>
+      </c>
+      <c r="G2050">
+        <v>82421701</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2051">
+        <v>0</v>
+      </c>
+      <c r="D2051">
+        <v>85</v>
+      </c>
+      <c r="E2051">
+        <v>695723600</v>
+      </c>
+      <c r="F2051">
+        <v>418732</v>
+      </c>
+      <c r="G2051">
+        <v>85418732</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2052">
+        <v>0</v>
+      </c>
+      <c r="D2052">
+        <v>85</v>
+      </c>
+      <c r="E2052">
+        <v>697660800</v>
+      </c>
+      <c r="F2052">
+        <v>503526</v>
+      </c>
+      <c r="G2052">
+        <v>85503526</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2053">
+        <v>0</v>
+      </c>
+      <c r="D2053">
+        <v>82</v>
+      </c>
+      <c r="E2053">
+        <v>695571500</v>
+      </c>
+      <c r="F2053">
+        <v>441703</v>
+      </c>
+      <c r="G2053">
+        <v>82441703</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2054">
+        <v>0</v>
+      </c>
+      <c r="D2054">
+        <v>81</v>
+      </c>
+      <c r="E2054">
+        <v>704386300</v>
+      </c>
+      <c r="F2054">
+        <v>516468</v>
+      </c>
+      <c r="G2054">
+        <v>81516468</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2055">
+        <v>0</v>
+      </c>
+      <c r="D2055">
+        <v>81</v>
+      </c>
+      <c r="E2055">
+        <v>704386300</v>
+      </c>
+      <c r="F2055">
+        <v>511211</v>
+      </c>
+      <c r="G2055">
+        <v>81511211</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2056">
+        <v>0</v>
+      </c>
+      <c r="D2056">
+        <v>85</v>
+      </c>
+      <c r="E2056">
+        <v>706070100</v>
+      </c>
+      <c r="F2056">
+        <v>593257</v>
+      </c>
+      <c r="G2056">
+        <v>85593257</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2057">
+        <v>0</v>
+      </c>
+      <c r="D2057">
+        <v>81</v>
+      </c>
+      <c r="E2057">
+        <v>704226900</v>
+      </c>
+      <c r="F2057">
+        <v>497300</v>
+      </c>
+      <c r="G2057">
+        <v>81497300</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2058">
+        <v>0</v>
+      </c>
+      <c r="D2058">
+        <v>85</v>
+      </c>
+      <c r="E2058">
+        <v>718147200</v>
+      </c>
+      <c r="F2058">
+        <v>478316</v>
+      </c>
+      <c r="G2058">
+        <v>85478316</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2059">
+        <v>0</v>
+      </c>
+      <c r="D2059">
+        <v>85</v>
+      </c>
+      <c r="E2059">
+        <v>718147200</v>
+      </c>
+      <c r="F2059">
+        <v>464694</v>
+      </c>
+      <c r="G2059">
+        <v>85464694</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2060">
+        <v>0</v>
+      </c>
+      <c r="D2060">
+        <v>85</v>
+      </c>
+      <c r="E2060">
+        <v>720052800</v>
+      </c>
+      <c r="F2060">
+        <v>561047</v>
+      </c>
+      <c r="G2060">
+        <v>85561047</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2061">
+        <v>0</v>
+      </c>
+      <c r="D2061">
+        <v>85</v>
+      </c>
+      <c r="E2061">
+        <v>718003800</v>
+      </c>
+      <c r="F2061">
+        <v>477133</v>
+      </c>
+      <c r="G2061">
+        <v>85477133</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2062">
+        <v>0</v>
+      </c>
+      <c r="D2062">
+        <v>85</v>
+      </c>
+      <c r="E2062">
+        <v>698993700</v>
+      </c>
+      <c r="F2062">
+        <v>518975</v>
+      </c>
+      <c r="G2062">
+        <v>85518975</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2063">
+        <v>0</v>
+      </c>
+      <c r="D2063">
+        <v>82</v>
+      </c>
+      <c r="E2063">
+        <v>698993700</v>
+      </c>
+      <c r="F2063">
+        <v>514247</v>
+      </c>
+      <c r="G2063">
+        <v>82514247</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2064">
+        <v>0</v>
+      </c>
+      <c r="D2064">
+        <v>85</v>
+      </c>
+      <c r="E2064">
+        <v>700797000</v>
+      </c>
+      <c r="F2064">
+        <v>596331</v>
+      </c>
+      <c r="G2064">
+        <v>85596331</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2065">
+        <v>0</v>
+      </c>
+      <c r="D2065">
+        <v>82</v>
+      </c>
+      <c r="E2065">
+        <v>698841700</v>
+      </c>
+      <c r="F2065">
+        <v>498409</v>
+      </c>
+      <c r="G2065">
+        <v>82498409</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2066">
+        <v>0</v>
+      </c>
+      <c r="D2066">
+        <v>85</v>
+      </c>
+      <c r="E2066">
+        <v>757446500</v>
+      </c>
+      <c r="F2066">
+        <v>574887</v>
+      </c>
+      <c r="G2066">
+        <v>85574887</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2067">
+        <v>0</v>
+      </c>
+      <c r="D2067">
+        <v>85</v>
+      </c>
+      <c r="E2067">
+        <v>757446500</v>
+      </c>
+      <c r="F2067">
+        <v>593211</v>
+      </c>
+      <c r="G2067">
+        <v>85593211</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2068">
+        <v>0</v>
+      </c>
+      <c r="D2068">
+        <v>85</v>
+      </c>
+      <c r="E2068">
+        <v>759297000</v>
+      </c>
+      <c r="F2068">
+        <v>686641</v>
+      </c>
+      <c r="G2068">
+        <v>85686641</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2069">
+        <v>0</v>
+      </c>
+      <c r="D2069">
+        <v>85</v>
+      </c>
+      <c r="E2069">
+        <v>757294000</v>
+      </c>
+      <c r="F2069">
+        <v>582191</v>
+      </c>
+      <c r="G2069">
+        <v>85582191</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2070">
+        <v>0</v>
+      </c>
+      <c r="D2070">
+        <v>85</v>
+      </c>
+      <c r="E2070">
+        <v>731219800</v>
+      </c>
+      <c r="F2070">
+        <v>454200</v>
+      </c>
+      <c r="G2070">
+        <v>85454200</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2071">
+        <v>0</v>
+      </c>
+      <c r="D2071">
+        <v>85</v>
+      </c>
+      <c r="E2071">
+        <v>731219800</v>
+      </c>
+      <c r="F2071">
+        <v>445244</v>
+      </c>
+      <c r="G2071">
+        <v>85445244</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2072">
+        <v>0</v>
+      </c>
+      <c r="D2072">
+        <v>85</v>
+      </c>
+      <c r="E2072">
+        <v>733114300</v>
+      </c>
+      <c r="F2072">
+        <v>551897</v>
+      </c>
+      <c r="G2072">
+        <v>85551897</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2073">
+        <v>0</v>
+      </c>
+      <c r="D2073">
+        <v>85</v>
+      </c>
+      <c r="E2073">
+        <v>731051300</v>
+      </c>
+      <c r="F2073">
+        <v>439534</v>
+      </c>
+      <c r="G2073">
+        <v>85439534</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2074">
+        <v>0</v>
+      </c>
+      <c r="D2074">
+        <v>83</v>
+      </c>
+      <c r="E2074">
+        <v>764263400</v>
+      </c>
+      <c r="F2074">
+        <v>496279</v>
+      </c>
+      <c r="G2074">
+        <v>83496279</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2075">
+        <v>0</v>
+      </c>
+      <c r="D2075">
+        <v>85</v>
+      </c>
+      <c r="E2075">
+        <v>764263400</v>
+      </c>
+      <c r="F2075">
+        <v>485554</v>
+      </c>
+      <c r="G2075">
+        <v>85485554</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2076">
+        <v>0</v>
+      </c>
+      <c r="D2076">
+        <v>85</v>
+      </c>
+      <c r="E2076">
+        <v>765997600</v>
+      </c>
+      <c r="F2076">
+        <v>581177</v>
+      </c>
+      <c r="G2076">
+        <v>85581177</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2077">
+        <v>0</v>
+      </c>
+      <c r="D2077">
+        <v>83</v>
+      </c>
+      <c r="E2077">
+        <v>764114000</v>
+      </c>
+      <c r="F2077">
+        <v>469330</v>
+      </c>
+      <c r="G2077">
+        <v>83469330</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2078">
+        <v>0</v>
+      </c>
+      <c r="D2078">
+        <v>85</v>
+      </c>
+      <c r="E2078">
+        <v>644868300</v>
+      </c>
+      <c r="F2078">
+        <v>535336</v>
+      </c>
+      <c r="G2078">
+        <v>85535336</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2079">
+        <v>0</v>
+      </c>
+      <c r="D2079">
+        <v>85</v>
+      </c>
+      <c r="E2079">
+        <v>644868300</v>
+      </c>
+      <c r="F2079">
+        <v>539844</v>
+      </c>
+      <c r="G2079">
+        <v>85539844</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2080">
+        <v>0</v>
+      </c>
+      <c r="D2080">
+        <v>85</v>
+      </c>
+      <c r="E2080">
+        <v>646710600</v>
+      </c>
+      <c r="F2080">
+        <v>609178</v>
+      </c>
+      <c r="G2080">
+        <v>85609178</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2081">
+        <v>0</v>
+      </c>
+      <c r="D2081">
+        <v>85</v>
+      </c>
+      <c r="E2081">
+        <v>644717600</v>
+      </c>
+      <c r="F2081">
+        <v>506515</v>
+      </c>
+      <c r="G2081">
+        <v>85506515</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2082">
+        <v>0</v>
+      </c>
+      <c r="D2082">
+        <v>85</v>
+      </c>
+      <c r="E2082">
+        <v>705116000</v>
+      </c>
+      <c r="F2082">
+        <v>549429</v>
+      </c>
+      <c r="G2082">
+        <v>85549429</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2083">
+        <v>0</v>
+      </c>
+      <c r="D2083">
+        <v>85</v>
+      </c>
+      <c r="E2083">
+        <v>705116000</v>
+      </c>
+      <c r="F2083">
+        <v>543400</v>
+      </c>
+      <c r="G2083">
+        <v>85543400</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2084">
+        <v>0</v>
+      </c>
+      <c r="D2084">
+        <v>85</v>
+      </c>
+      <c r="E2084">
+        <v>707052300</v>
+      </c>
+      <c r="F2084">
+        <v>643940</v>
+      </c>
+      <c r="G2084">
+        <v>85643940</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2085">
+        <v>0</v>
+      </c>
+      <c r="D2085">
+        <v>85</v>
+      </c>
+      <c r="E2085">
+        <v>704962600</v>
+      </c>
+      <c r="F2085">
+        <v>534057</v>
+      </c>
+      <c r="G2085">
+        <v>85534057</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>